--- a/data/trans_camb/iP16_n_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP16_n_R2-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-18,54</t>
+          <t>-26,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-17,36</t>
+          <t>-26,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>-30,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-26,01</t>
+          <t>17,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-23,14</t>
+          <t>-43,69</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>-27,26</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-22,28</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-20,24</t>
+          <t>-37,57</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-27,68</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,77; -4,38</t>
+          <t>-76,66; 47,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,93; -3,05</t>
+          <t>-77,23; 47,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 19,91</t>
+          <t>-72,86; 31,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,38; -12,78</t>
+          <t>-29,63; 61,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,42; -9,13</t>
+          <t>-75,4; -17,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 12,17</t>
+          <t>-59,97; 22,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,35; -12,28</t>
+          <t>-35,52; 44,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,87; -11,02</t>
+          <t>-63,32; -2,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 12,1</t>
+          <t>-56,34; 7,43</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-61,53%</t>
+          <t>-49,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-57,62%</t>
+          <t>-49,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>-55,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-66,63%</t>
+          <t>40,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-59,27%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,86%</t>
+          <t>-62,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-64,4%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-58,49%</t>
+          <t>-79,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>-58,48%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-85,33; -11,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-81,69; -8,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,11; 88,67</t>
+          <t>-100,0; 275,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-85,35; -30,63</t>
+          <t>-57,19; 325,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,69; -28,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,72; 42,35</t>
+          <t>-100,0; 354,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-81,05; -39,81</t>
+          <t>-62,9; 155,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-75,26; -37,12</t>
+          <t>-100,0; 70,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-28,99; 40,46</t>
+          <t>-91,52; 37,9</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-29,84</t>
+          <t>-18,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-38,93</t>
+          <t>-17,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,5</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-28,18</t>
+          <t>-26,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-30,81</t>
+          <t>-23,14</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,37</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-29,17</t>
+          <t>-22,28</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-34,88</t>
+          <t>-20,24</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,54</t>
+          <t>-0,22</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-44,27; -12,92</t>
+          <t>-32,77; -4,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-54,06; -23,82</t>
+          <t>-31,93; -3,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 11,84</t>
+          <t>-11,5; 19,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-46,14; -7,69</t>
+          <t>-40,38; -12,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-50,07; -11,47</t>
+          <t>-37,42; -9,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,74; 11,41</t>
+          <t>-19,18; 12,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-41,29; -16,75</t>
+          <t>-32,35; -12,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-47,11; -22,37</t>
+          <t>-29,87; -11,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-24,43; 7,19</t>
+          <t>-11,53; 12,1</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-65,42%</t>
+          <t>-61,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-85,35%</t>
+          <t>-57,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-16,45%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-63,79%</t>
+          <t>-66,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-69,74%</t>
+          <t>-59,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-21,22%</t>
+          <t>-12,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-64,75%</t>
+          <t>-64,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-77,43%</t>
+          <t>-58,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-18,97%</t>
+          <t>-0,63%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-82,04; -34,35</t>
+          <t>-85,33; -11,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-95,77; -57,15</t>
+          <t>-81,69; -8,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,58; 31,9</t>
+          <t>-30,11; 88,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-82,5; -17,89</t>
+          <t>-85,35; -30,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-89,54; -30,4</t>
+          <t>-79,69; -28,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,19; 34,66</t>
+          <t>-43,72; 42,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-78,36; -43,82</t>
+          <t>-81,05; -39,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-89,31; -58,8</t>
+          <t>-75,26; -37,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-46,29; 18,99</t>
+          <t>-28,99; 40,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-26,93</t>
+          <t>-38,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-26,91</t>
+          <t>-23,74</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-30,27</t>
+          <t>-13,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,55</t>
+          <t>-13,86</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-43,69</t>
+          <t>-21,03</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-27,26</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>-27,55</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-37,57</t>
+          <t>-23,63</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-27,68</t>
+          <t>-10,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-76,66; 47,61</t>
+          <t>-52,2; -21,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-77,23; 47,18</t>
+          <t>-38,7; -4,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-72,86; 31,24</t>
+          <t>-32,24; 6,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 61,94</t>
+          <t>-30,13; 3,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-75,4; -17,55</t>
+          <t>-38,08; -4,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-59,97; 22,35</t>
+          <t>-25,13; 11,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-35,52; 44,54</t>
+          <t>-39,82; -15,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-63,32; -2,52</t>
+          <t>-36,43; -10,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-56,34; 7,43</t>
+          <t>-22,46; 3,54</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-49,21%</t>
+          <t>-80,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-49,18%</t>
+          <t>-50,21%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-55,31%</t>
+          <t>-27,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>-43,33%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-65,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-62,38%</t>
+          <t>-13,48%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>-67,37%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-79,36%</t>
+          <t>-57,77%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-58,48%</t>
+          <t>-24,63%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,86; -53,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,62; -7,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 275,8</t>
+          <t>-57,36; 20,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,19; 325,14</t>
+          <t>-72,66; 16,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,64; -8,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 354,9</t>
+          <t>-55,41; 49,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-62,9; 155,91</t>
+          <t>-82,85; -45,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 70,57</t>
+          <t>-76,46; -27,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-91,52; 37,9</t>
+          <t>-49,48; 10,09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-38,24</t>
+          <t>-29,84</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-23,74</t>
+          <t>-38,93</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-13,05</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-13,86</t>
+          <t>-28,18</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-21,03</t>
+          <t>-30,81</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>-9,37</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-27,55</t>
+          <t>-29,17</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-23,63</t>
+          <t>-34,88</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-10,07</t>
+          <t>-8,54</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-52,2; -21,6</t>
+          <t>-44,27; -12,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-38,7; -4,2</t>
+          <t>-54,06; -23,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 6,82</t>
+          <t>-28,49; 11,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 3,09</t>
+          <t>-46,14; -7,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-38,08; -4,84</t>
+          <t>-50,07; -11,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 11,55</t>
+          <t>-31,74; 11,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-39,82; -15,54</t>
+          <t>-41,29; -16,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-36,43; -10,18</t>
+          <t>-47,11; -22,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 3,54</t>
+          <t>-24,43; 7,19</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-80,88%</t>
+          <t>-65,42%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-50,21%</t>
+          <t>-85,35%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-27,6%</t>
+          <t>-16,45%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-43,33%</t>
+          <t>-63,79%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-65,74%</t>
+          <t>-69,74%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-13,48%</t>
+          <t>-21,22%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-67,37%</t>
+          <t>-64,75%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-57,77%</t>
+          <t>-77,43%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-24,63%</t>
+          <t>-18,97%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-92,86; -53,81</t>
+          <t>-82,04; -34,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-72,62; -7,92</t>
+          <t>-95,77; -57,15</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-57,36; 20,12</t>
+          <t>-52,58; 31,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-72,66; 16,7</t>
+          <t>-82,5; -17,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-88,64; -8,45</t>
+          <t>-89,54; -30,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-55,41; 49,43</t>
+          <t>-57,19; 34,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-82,85; -45,88</t>
+          <t>-78,36; -43,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-76,46; -27,63</t>
+          <t>-89,31; -58,8</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-49,48; 10,09</t>
+          <t>-46,29; 18,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP16_n_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP16_n_R2-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 61,94</t>
+          <t>-31,94; 61,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-75,4; -17,55</t>
+          <t>-70,66; -17,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-59,97; 22,35</t>
+          <t>-55,98; 24,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,52; 44,54</t>
+          <t>-36,54; 43,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-63,32; -2,52</t>
+          <t>-64,86; -6,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-56,34; 7,43</t>
+          <t>-55,4; 5,51</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-57,19; 325,14</t>
+          <t>-52,14; 289,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,22 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 354,9</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,9; 155,91</t>
+          <t>-63,66; 153,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 70,57</t>
+          <t>-100,0; 41,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-91,52; 37,9</t>
+          <t>-91,52; 28,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 3,17</t>
+          <t>-34,77; 3,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-41,96; -2,69</t>
+          <t>-42,65; -3,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 17,98</t>
+          <t>-26,2; 16,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-37,17; 5,25</t>
+          <t>-38,4; 3,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,75; -5,59</t>
+          <t>-43,96; -4,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 39,04</t>
+          <t>-10,3; 38,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,34; -2,13</t>
+          <t>-31,75; -3,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,8; -8,8</t>
+          <t>-36,08; -10,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 20,99</t>
+          <t>-11,54; 21,01</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-77,22; 22,15</t>
+          <t>-76,95; 19,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,22</t>
+          <t>-92,48; 8,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,21; 83,41</t>
+          <t>-63,79; 91,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-82,48; 31,98</t>
+          <t>-83,43; 19,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-92,98; -4,93</t>
+          <t>-93,29; -7,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 169,54</t>
+          <t>-24,08; 166,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-71,11; -5,03</t>
+          <t>-73,27; -10,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-89,37; -30,06</t>
+          <t>-88,1; -34,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 78,24</t>
+          <t>-29,35; 84,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-32,77; -4,38</t>
+          <t>-31,58; -3,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-31,93; -3,05</t>
+          <t>-31,49; -2,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 19,91</t>
+          <t>-11,38; 18,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-40,38; -12,78</t>
+          <t>-40,93; -11,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-37,42; -9,13</t>
+          <t>-38,77; -8,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 12,17</t>
+          <t>-22,02; 12,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-32,35; -12,28</t>
+          <t>-32,25; -11,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,87; -11,02</t>
+          <t>-30,31; -10,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 12,1</t>
+          <t>-10,76; 11,48</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,33; -11,02</t>
+          <t>-85,24; -2,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-81,69; -8,8</t>
+          <t>-81,75; -6,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,11; 88,67</t>
+          <t>-30,2; 83,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-85,35; -30,63</t>
+          <t>-86,35; -33,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,69; -28,09</t>
+          <t>-78,72; -21,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,72; 42,35</t>
+          <t>-48,29; 39,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-81,05; -39,81</t>
+          <t>-79,6; -36,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-75,26; -37,12</t>
+          <t>-74,29; -33,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,99; 40,46</t>
+          <t>-28,93; 41,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-52,2; -21,6</t>
+          <t>-54,36; -23,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-38,7; -4,2</t>
+          <t>-43,04; -5,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 6,82</t>
+          <t>-30,63; 7,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 3,09</t>
+          <t>-32,05; 2,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-38,08; -4,84</t>
+          <t>-38,25; -5,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 11,55</t>
+          <t>-24,45; 13,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-39,82; -15,54</t>
+          <t>-39,67; -15,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-36,43; -10,18</t>
+          <t>-36,42; -10,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 3,54</t>
+          <t>-22,95; 3,78</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-92,86; -53,81</t>
+          <t>-93,63; -56,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-72,62; -7,92</t>
+          <t>-76,84; -14,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,36; 20,12</t>
+          <t>-54,5; 17,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-72,66; 16,7</t>
+          <t>-74,64; 14,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-88,64; -8,45</t>
+          <t>-88,83; -11,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-55,41; 49,43</t>
+          <t>-54,67; 66,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-82,85; -45,88</t>
+          <t>-82,73; -44,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-76,46; -27,63</t>
+          <t>-76,4; -29,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,48; 10,09</t>
+          <t>-49,19; 10,78</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-44,27; -12,92</t>
+          <t>-46,52; -14,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-54,06; -23,82</t>
+          <t>-54,13; -24,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 11,84</t>
+          <t>-26,53; 10,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-46,14; -7,69</t>
+          <t>-47,66; -7,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-50,07; -11,47</t>
+          <t>-52,49; -10,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-31,74; 11,41</t>
+          <t>-32,02; 12,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-41,29; -16,75</t>
+          <t>-40,98; -16,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-47,11; -22,37</t>
+          <t>-45,51; -22,18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-24,43; 7,19</t>
+          <t>-21,79; 5,99</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-82,04; -34,35</t>
+          <t>-83,56; -35,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-95,77; -57,15</t>
+          <t>-96,32; -58,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-52,58; 31,9</t>
+          <t>-50,85; 27,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-82,5; -17,89</t>
+          <t>-82,69; -21,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-89,54; -30,4</t>
+          <t>-90,08; -27,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-57,19; 34,66</t>
+          <t>-57,31; 42,9</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-78,36; -43,82</t>
+          <t>-79,16; -42,99</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-89,31; -58,8</t>
+          <t>-88,03; -56,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-46,29; 18,99</t>
+          <t>-42,38; 14,99</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-33,59; -17,53</t>
+          <t>-33,94; -18,09</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-33,68; -16,99</t>
+          <t>-34,02; -17,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 4,46</t>
+          <t>-14,62; 3,41</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-28,62; -11,14</t>
+          <t>-29,21; -12,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-34,7; -18,28</t>
+          <t>-34,34; -16,91</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 4,26</t>
+          <t>-15,44; 4,2</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-29,1; -17,2</t>
+          <t>-28,96; -17,36</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-31,9; -19,75</t>
+          <t>-31,55; -20,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 1,96</t>
+          <t>-11,78; 0,95</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-76,87; -49,48</t>
+          <t>-76,68; -50,49</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-76,87; -47,96</t>
+          <t>-77,94; -50,17</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 12,59</t>
+          <t>-34,04; 9,51</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-66,91; -33,23</t>
+          <t>-66,95; -34,01</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-80,14; -51,99</t>
+          <t>-78,52; -51,63</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 12,41</t>
+          <t>-35,46; 11,89</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-69,57; -48,11</t>
+          <t>-68,84; -48,26</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-75,38; -54,76</t>
+          <t>-74,92; -55,28</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-28,48; 5,27</t>
+          <t>-27,85; 1,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP16_n_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP16_n_R2-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-76,66; 47,61</t>
+          <t>-73,36; 56,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-77,23; 47,18</t>
+          <t>-72,52; 50,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-72,86; 31,24</t>
+          <t>-75,51; 21,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 61,79</t>
+          <t>-28,91; 62,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-70,66; -17,48</t>
+          <t>-75,6; -17,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-55,98; 24,36</t>
+          <t>-59,7; 22,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-36,54; 43,87</t>
+          <t>-34,26; 41,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-64,86; -6,43</t>
+          <t>-63,79; -4,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-55,4; 5,51</t>
+          <t>-56,67; 2,57</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 275,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,14; 289,18</t>
+          <t>-54,55; 316,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,29 +816,29 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,66; 153,55</t>
+          <t>-59,55; 141,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 41,58</t>
+          <t>-100,0; 22,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-91,52; 28,55</t>
+          <t>-92,32; 29,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-34,77; 3,34</t>
+          <t>-33,18; 3,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-42,65; -3,54</t>
+          <t>-40,35; -0,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 16,72</t>
+          <t>-26,78; 17,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,4; 3,39</t>
+          <t>-36,7; 4,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,96; -4,41</t>
+          <t>-41,46; -3,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 38,79</t>
+          <t>-11,38; 39,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,75; -3,82</t>
+          <t>-30,01; -2,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,08; -10,85</t>
+          <t>-36,86; -8,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 21,01</t>
+          <t>-12,56; 21,68</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-76,95; 19,88</t>
+          <t>-78,66; 19,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-92,48; 8,48</t>
+          <t>-92,44; 8,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,79; 91,63</t>
+          <t>-65,39; 79,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-83,43; 19,96</t>
+          <t>-79,01; 30,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-93,29; -7,93</t>
+          <t>-92,65; 5,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,08; 166,28</t>
+          <t>-24,94; 179,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-73,27; -10,48</t>
+          <t>-72,92; -6,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-88,1; -34,77</t>
+          <t>-89,84; -28,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,35; 84,06</t>
+          <t>-29,16; 81,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-31,58; -3,84</t>
+          <t>-31,22; -2,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-31,49; -2,7</t>
+          <t>-31,89; -2,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 18,61</t>
+          <t>-10,45; 19,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-40,93; -11,1</t>
+          <t>-40,83; -12,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-38,77; -8,09</t>
+          <t>-38,14; -9,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 12,29</t>
+          <t>-22,47; 12,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-32,25; -11,87</t>
+          <t>-32,16; -12,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,31; -10,54</t>
+          <t>-30,26; -10,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 11,48</t>
+          <t>-11,72; 11,12</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,24; -2,76</t>
+          <t>-86,77; -9,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-81,75; -6,78</t>
+          <t>-81,2; -9,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 83,41</t>
+          <t>-28,93; 98,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-86,35; -33,58</t>
+          <t>-85,82; -37,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-78,72; -21,24</t>
+          <t>-79,29; -26,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,29; 39,35</t>
+          <t>-46,2; 38,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-79,6; -36,84</t>
+          <t>-81,24; -37,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,29; -33,48</t>
+          <t>-74,77; -32,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 41,41</t>
+          <t>-28,78; 39,43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-54,36; -23,6</t>
+          <t>-52,77; -22,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-43,04; -5,55</t>
+          <t>-41,38; -4,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 7,29</t>
+          <t>-31,38; 4,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-32,05; 2,06</t>
+          <t>-32,51; 3,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-38,25; -5,16</t>
+          <t>-36,19; -3,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 13,79</t>
+          <t>-25,05; 11,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-39,67; -15,68</t>
+          <t>-38,82; -14,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-36,42; -10,7</t>
+          <t>-35,75; -10,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 3,78</t>
+          <t>-26,14; 2,42</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-93,63; -56,76</t>
+          <t>-93,42; -57,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-76,84; -14,59</t>
+          <t>-75,02; -10,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,5; 17,9</t>
+          <t>-54,99; 11,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-74,64; 14,15</t>
+          <t>-75,63; 24,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-88,83; -11,8</t>
+          <t>-88,7; -5,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,67; 66,88</t>
+          <t>-58,07; 51,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-82,73; -44,85</t>
+          <t>-82,0; -43,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-76,4; -29,52</t>
+          <t>-75,17; -29,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,19; 10,78</t>
+          <t>-50,88; 7,98</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-46,52; -14,49</t>
+          <t>-45,0; -12,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-54,13; -24,05</t>
+          <t>-53,26; -23,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-26,53; 10,57</t>
+          <t>-26,31; 12,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-47,66; -7,29</t>
+          <t>-46,62; -9,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-52,49; -10,43</t>
+          <t>-49,39; -12,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-32,02; 12,64</t>
+          <t>-30,0; 10,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-40,98; -16,1</t>
+          <t>-41,2; -16,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-45,51; -22,18</t>
+          <t>-45,76; -22,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 5,99</t>
+          <t>-22,56; 6,65</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-83,56; -35,4</t>
+          <t>-83,99; -34,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-96,32; -58,1</t>
+          <t>-96,11; -59,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-50,85; 27,67</t>
+          <t>-51,05; 33,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-82,69; -21,64</t>
+          <t>-83,18; -29,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-90,08; -27,37</t>
+          <t>-89,14; -33,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-57,31; 42,9</t>
+          <t>-56,51; 32,5</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-79,16; -42,99</t>
+          <t>-78,06; -42,76</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-88,03; -56,77</t>
+          <t>-88,93; -56,99</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-42,38; 14,99</t>
+          <t>-43,74; 17,3</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-33,94; -18,09</t>
+          <t>-34,24; -18,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-34,02; -17,54</t>
+          <t>-34,39; -18,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 3,41</t>
+          <t>-13,7; 3,94</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-29,21; -12,33</t>
+          <t>-29,36; -12,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-34,34; -16,91</t>
+          <t>-34,79; -17,65</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 4,2</t>
+          <t>-15,18; 5,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-28,96; -17,36</t>
+          <t>-29,32; -17,4</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-31,55; -20,0</t>
+          <t>-31,83; -20,5</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 0,95</t>
+          <t>-11,66; 1,3</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-76,68; -50,49</t>
+          <t>-76,47; -50,97</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-77,94; -50,17</t>
+          <t>-77,91; -49,51</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 9,51</t>
+          <t>-31,67; 11,92</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-66,95; -34,01</t>
+          <t>-67,79; -34,88</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-78,52; -51,63</t>
+          <t>-80,0; -52,72</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-35,46; 11,89</t>
+          <t>-35,68; 16,76</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-68,84; -48,26</t>
+          <t>-69,21; -48,54</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-74,92; -55,28</t>
+          <t>-74,81; -56,12</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 1,86</t>
+          <t>-27,91; 4,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP16_n_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP16_n_R2-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-26,93</t>
+          <t>-10,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-26,91</t>
+          <t>-30,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-30,27</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,55</t>
+          <t>-18,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-43,69</t>
+          <t>-23,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-27,26</t>
+          <t>-9,92</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>-14,57</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-37,57</t>
+          <t>-26,81</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-27,68</t>
+          <t>-3,21</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-73,36; 56,69</t>
+          <t>-31,01; 9,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-72,52; 50,97</t>
+          <t>-47,39; -14,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-75,51; 21,66</t>
+          <t>-17,51; 23,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,91; 62,53</t>
+          <t>-35,07; 2,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-75,6; -17,5</t>
+          <t>-40,13; -5,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-59,7; 22,25</t>
+          <t>-30,37; 11,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-34,26; 41,31</t>
+          <t>-27,7; -0,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-63,79; -4,01</t>
+          <t>-38,75; -13,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-56,67; 2,57</t>
+          <t>-16,67; 12,58</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-49,21%</t>
+          <t>-28,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-49,18%</t>
+          <t>-80,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-55,31%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>-49,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-64,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-62,38%</t>
+          <t>-27,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>-39,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-79,36%</t>
+          <t>-72,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-58,48%</t>
+          <t>-8,67%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,83; 34,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,06; -43,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,78; 88,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,55; 316,86</t>
+          <t>-77,46; 13,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,48; -8,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,34; 42,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-59,55; 141,46</t>
+          <t>-63,84; -3,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 22,49</t>
+          <t>-87,91; -42,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-92,32; 29,27</t>
+          <t>-38,04; 42,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-15,14</t>
+          <t>-26,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-22,32</t>
+          <t>-23,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-7,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-16,62</t>
+          <t>-18,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-24,8</t>
+          <t>-17,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,66</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-15,89</t>
+          <t>-22,28</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-23,52</t>
+          <t>-20,24</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>-1,7</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-33,18; 3,6</t>
+          <t>-40,38; -12,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-40,35; -0,85</t>
+          <t>-37,42; -9,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 17,83</t>
+          <t>-23,7; 9,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 4,57</t>
+          <t>-32,77; -4,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,46; -3,79</t>
+          <t>-31,93; -3,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 39,23</t>
+          <t>-11,94; 19,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,01; -2,17</t>
+          <t>-32,35; -12,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,86; -8,98</t>
+          <t>-29,87; -11,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 21,68</t>
+          <t>-13,39; 10,42</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-45,89%</t>
+          <t>-66,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-67,64%</t>
+          <t>-59,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-13,99%</t>
+          <t>-20,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-47,74%</t>
+          <t>-61,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-71,22%</t>
+          <t>-57,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-46,87%</t>
+          <t>-64,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-69,39%</t>
+          <t>-58,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>-4,9%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-78,66; 19,21</t>
+          <t>-85,35; -30,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-92,44; 8,24</t>
+          <t>-79,69; -28,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,39; 79,44</t>
+          <t>-53,71; 31,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-79,01; 30,85</t>
+          <t>-85,33; -11,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-92,65; 5,86</t>
+          <t>-81,69; -8,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 179,05</t>
+          <t>-31,22; 91,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,92; -6,51</t>
+          <t>-81,05; -39,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-89,84; -28,79</t>
+          <t>-75,26; -37,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 81,65</t>
+          <t>-33,6; 35,44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-18,54</t>
+          <t>-13,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-17,36</t>
+          <t>-21,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>-11,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-26,01</t>
+          <t>-38,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-23,14</t>
+          <t>-23,74</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>-13,19</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-22,28</t>
+          <t>-27,55</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-20,24</t>
+          <t>-23,63</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-14,73</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-31,22; -2,75</t>
+          <t>-30,13; 3,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-31,89; -2,72</t>
+          <t>-38,08; -4,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 19,64</t>
+          <t>-38,05; 4,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-40,83; -12,11</t>
+          <t>-52,2; -21,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-38,14; -9,29</t>
+          <t>-38,7; -4,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 12,12</t>
+          <t>-32,24; 6,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-32,16; -12,32</t>
+          <t>-39,82; -15,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,26; -10,11</t>
+          <t>-36,43; -10,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 11,12</t>
+          <t>-32,38; -1,07</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-61,53%</t>
+          <t>-43,33%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-57,62%</t>
+          <t>-65,74%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>-36,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-66,63%</t>
+          <t>-80,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-59,27%</t>
+          <t>-50,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,86%</t>
+          <t>-27,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-64,4%</t>
+          <t>-67,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-58,49%</t>
+          <t>-57,77%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>-36,03%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,77; -9,88</t>
+          <t>-72,66; 16,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-81,2; -9,49</t>
+          <t>-88,64; -8,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 98,3</t>
+          <t>-79,62; 18,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-85,82; -37,2</t>
+          <t>-92,86; -53,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,29; -26,84</t>
+          <t>-72,62; -7,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,2; 38,68</t>
+          <t>-56,61; 21,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-81,24; -37,85</t>
+          <t>-82,85; -45,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,77; -32,21</t>
+          <t>-76,46; -27,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,78; 39,43</t>
+          <t>-66,49; -4,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-38,24</t>
+          <t>-28,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-23,74</t>
+          <t>-30,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-13,05</t>
+          <t>-9,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-13,86</t>
+          <t>-29,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-21,03</t>
+          <t>-38,93</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>-8,34</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-27,55</t>
+          <t>-29,17</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-23,63</t>
+          <t>-34,88</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-10,07</t>
+          <t>-9,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-52,77; -22,32</t>
+          <t>-46,14; -7,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-41,38; -4,42</t>
+          <t>-50,07; -11,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-31,38; 4,51</t>
+          <t>-31,78; 11,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-32,51; 3,68</t>
+          <t>-44,27; -12,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-36,19; -3,45</t>
+          <t>-54,06; -23,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 11,45</t>
+          <t>-29,04; 11,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-38,82; -14,3</t>
+          <t>-41,29; -16,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-35,75; -10,17</t>
+          <t>-47,11; -22,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 2,42</t>
+          <t>-24,94; 6,47</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-80,88%</t>
+          <t>-63,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-50,21%</t>
+          <t>-69,74%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-27,6%</t>
+          <t>-21,9%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-43,33%</t>
+          <t>-65,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-65,74%</t>
+          <t>-85,35%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-13,48%</t>
+          <t>-18,29%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-67,37%</t>
+          <t>-64,75%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-57,77%</t>
+          <t>-77,43%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-24,63%</t>
+          <t>-20,17%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-93,42; -57,95</t>
+          <t>-82,5; -17,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-75,02; -10,21</t>
+          <t>-89,54; -30,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,99; 11,85</t>
+          <t>-57,71; 34,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-75,63; 24,01</t>
+          <t>-82,04; -34,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-88,7; -5,2</t>
+          <t>-95,77; -57,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,07; 51,89</t>
+          <t>-54,29; 28,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-82,0; -43,51</t>
+          <t>-78,36; -43,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-75,17; -29,28</t>
+          <t>-89,31; -58,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-50,88; 7,98</t>
+          <t>-47,56; 17,47</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-29,84</t>
+          <t>-20,33</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-38,93</t>
+          <t>-25,71</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,5</t>
+          <t>-9,75</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-28,18</t>
+          <t>-26,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-30,81</t>
+          <t>-26,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-9,37</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-29,17</t>
+          <t>-23,3</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-34,88</t>
+          <t>-25,92</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-8,54</t>
+          <t>-7,99</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-45,0; -12,32</t>
+          <t>-28,62; -11,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-53,26; -23,95</t>
+          <t>-34,7; -18,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 12,21</t>
+          <t>-23,65; 0,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-46,62; -9,95</t>
+          <t>-33,59; -17,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-49,39; -12,62</t>
+          <t>-33,68; -16,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 10,58</t>
+          <t>-14,13; 4,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-41,2; -16,44</t>
+          <t>-29,1; -17,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-45,76; -22,23</t>
+          <t>-31,9; -19,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 6,65</t>
+          <t>-16,2; -0,44</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-65,42%</t>
+          <t>-53,15%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-85,35%</t>
+          <t>-67,21%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-16,45%</t>
+          <t>-25,48%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-63,79%</t>
+          <t>-65,38%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-69,74%</t>
+          <t>-65,35%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-21,22%</t>
+          <t>-15,57%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-64,75%</t>
+          <t>-59,63%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-77,43%</t>
+          <t>-66,33%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-18,97%</t>
+          <t>-20,46%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-83,99; -34,96</t>
+          <t>-66,91; -33,23</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-96,11; -59,33</t>
+          <t>-80,14; -51,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-51,05; 33,36</t>
+          <t>-55,64; 0,24</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-83,18; -29,06</t>
+          <t>-76,87; -49,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-89,14; -33,79</t>
+          <t>-76,87; -47,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-56,51; 32,5</t>
+          <t>-32,1; 11,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-78,06; -42,76</t>
+          <t>-69,57; -48,11</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-88,93; -56,99</t>
+          <t>-75,38; -54,76</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-43,74; 17,3</t>
+          <t>-38,37; -1,29</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-26,01</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-26,0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-5,65</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-20,33</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-25,71</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-5,11</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-23,3</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-25,92</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-5,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-34,24; -18,29</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-34,39; -18,0</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-13,7; 3,94</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-29,36; -12,04</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-34,79; -17,65</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-15,18; 5,36</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-29,32; -17,4</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-31,83; -20,5</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-11,66; 1,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-65,38%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-65,35%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-14,21%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-53,15%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-67,21%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-13,35%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-59,63%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-66,33%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-13,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-76,47; -50,97</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-77,91; -49,51</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-31,67; 11,92</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-67,79; -34,88</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-80,0; -52,72</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-35,68; 16,76</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-69,21; -48,54</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-74,81; -56,12</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-27,91; 4,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
